--- a/掲示板サイト.xlsx
+++ b/掲示板サイト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsuji.hikaru\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B556A0C7-9E76-4AD4-905F-8F91579A18D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35512CDE-01A8-41EE-A178-58150FEA4A08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17676" windowHeight="8556" activeTab="3" xr2:uid="{04F12CFC-C716-4EEA-9115-757028B8E2BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17676" windowHeight="8556" activeTab="1" xr2:uid="{04F12CFC-C716-4EEA-9115-757028B8E2BC}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="127">
   <si>
     <t>ログイン画面</t>
     <rPh sb="4" eb="6">
@@ -943,6 +943,16 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>シジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者権限</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -951,7 +961,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1006,8 +1016,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1035,6 +1060,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,7 +1238,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1274,6 +1305,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3774,9 +3811,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83366922-2EA1-4C28-90D3-09856DAAB594}">
-  <dimension ref="A2:E23"/>
+  <dimension ref="A2:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3800,14 +3837,14 @@
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="39" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="40" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2"/>
@@ -3816,7 +3853,7 @@
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="40" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -3824,20 +3861,20 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="5"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
@@ -3877,14 +3914,14 @@
       <c r="B12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="39" t="s">
         <v>88</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" s="7"/>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="40" t="s">
         <v>100</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -3893,21 +3930,21 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" s="7"/>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="40" t="s">
         <v>89</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B15" s="7"/>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="40" t="s">
         <v>90</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B16" s="5"/>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="40" t="s">
         <v>97</v>
       </c>
       <c r="D16" s="2"/>
@@ -3947,10 +3984,10 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="9"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="40" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3963,19 +4000,24 @@
       <c r="B22" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="40" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B23" s="5"/>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="40"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C24" s="41" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4530,7 +4572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5950C056-636B-4A77-92EF-44B3E683C610}">
   <dimension ref="A4:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>

--- a/掲示板サイト.xlsx
+++ b/掲示板サイト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsuji.hikaru\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\keizibann-master (2)\keizibann-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35512CDE-01A8-41EE-A178-58150FEA4A08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27496808-5D4F-4964-B1DA-7BAA2430C01D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17676" windowHeight="8556" activeTab="1" xr2:uid="{04F12CFC-C716-4EEA-9115-757028B8E2BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8655" windowHeight="5865" activeTab="5" xr2:uid="{04F12CFC-C716-4EEA-9115-757028B8E2BC}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="テーブル定義" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="150">
   <si>
     <t>ログイン画面</t>
     <rPh sb="4" eb="6">
@@ -955,13 +956,114 @@
       <t>ケンゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーが投稿したメッセージのみ</t>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更点</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・threadsテーブルのstatusカラム削除</t>
+    <rPh sb="22" eb="24">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドカテゴリー△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alter table threads alter res_count set default 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alter table threads alter category set default 'none'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>show columns from threads</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alter table threads drop status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/kazuki43zoo/items/757b557c05f548c6c5db</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://sallyhasnonose.hatenablog.com/entry/2016/11/30/160700</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19時ブラックリスト</t>
+  </si>
+  <si>
+    <t>20時インターセプター</t>
+  </si>
+  <si>
+    <t>セッション管理、ログ</t>
+  </si>
+  <si>
+    <t>21時入力値制限</t>
+  </si>
+  <si>
+    <t>22時DB変更方法、css直し、資料直し</t>
+  </si>
+  <si>
+    <t>時間表示</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1028,6 +1130,15 @@
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1232,13 +1343,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1311,8 +1425,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
   </cellStyles>
@@ -3613,16 +3731,16 @@
       <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="8:52" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="8:52" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AH3" s="8"/>
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
       <c r="AZ3" s="8"/>
     </row>
-    <row r="4" spans="8:52" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="8:52" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
@@ -3655,7 +3773,7 @@
       <c r="AY4" s="14"/>
       <c r="AZ4" s="29"/>
     </row>
-    <row r="5" spans="8:52" x14ac:dyDescent="0.45">
+    <row r="5" spans="8:52" x14ac:dyDescent="0.4">
       <c r="AC5" s="8"/>
       <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
@@ -3666,7 +3784,7 @@
       <c r="AM5" s="8"/>
       <c r="AN5" s="8"/>
     </row>
-    <row r="6" spans="8:52" x14ac:dyDescent="0.45">
+    <row r="6" spans="8:52" x14ac:dyDescent="0.4">
       <c r="Z6" s="8"/>
       <c r="AC6" s="8"/>
       <c r="AG6" s="8"/>
@@ -3678,7 +3796,7 @@
       <c r="AM6" s="8"/>
       <c r="AN6" s="8"/>
     </row>
-    <row r="7" spans="8:52" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="8:52" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AC7" s="8"/>
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
@@ -3689,7 +3807,7 @@
       <c r="AM7" s="8"/>
       <c r="AN7" s="8"/>
     </row>
-    <row r="8" spans="8:52" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="8:52" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="Y8" s="10" t="s">
         <v>111</v>
       </c>
@@ -3702,7 +3820,7 @@
       <c r="AM8" s="8"/>
       <c r="AN8" s="8"/>
     </row>
-    <row r="9" spans="8:52" x14ac:dyDescent="0.45">
+    <row r="9" spans="8:52" x14ac:dyDescent="0.4">
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
@@ -3712,7 +3830,7 @@
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="8:52" x14ac:dyDescent="0.45">
+    <row r="10" spans="8:52" x14ac:dyDescent="0.4">
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
@@ -3722,7 +3840,7 @@
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
     </row>
-    <row r="11" spans="8:52" x14ac:dyDescent="0.45">
+    <row r="11" spans="8:52" x14ac:dyDescent="0.4">
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
@@ -3732,7 +3850,7 @@
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="8:52" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="8:52" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
@@ -3741,7 +3859,7 @@
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
     </row>
-    <row r="13" spans="8:52" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="8:52" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H13" s="10" t="s">
         <v>15</v>
       </c>
@@ -3765,7 +3883,7 @@
       <c r="AM13" s="8"/>
       <c r="AN13" s="8"/>
     </row>
-    <row r="14" spans="8:52" x14ac:dyDescent="0.45">
+    <row r="14" spans="8:52" x14ac:dyDescent="0.4">
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
@@ -3780,7 +3898,7 @@
       <c r="AM14" s="8"/>
       <c r="AN14" s="8"/>
     </row>
-    <row r="15" spans="8:52" x14ac:dyDescent="0.45">
+    <row r="15" spans="8:52" x14ac:dyDescent="0.4">
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
@@ -3788,13 +3906,13 @@
       <c r="AM15" s="8"/>
       <c r="AN15" s="8"/>
     </row>
-    <row r="16" spans="8:52" x14ac:dyDescent="0.45">
+    <row r="16" spans="8:52" x14ac:dyDescent="0.4">
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="AN16" s="8"/>
     </row>
-    <row r="17" spans="11:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="11:15" x14ac:dyDescent="0.4">
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -3813,16 +3931,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83366922-2EA1-4C28-90D3-09856DAAB594}">
   <dimension ref="A2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18.09765625" customWidth="1"/>
-    <col min="3" max="3" width="27.09765625" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="40.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3833,7 +3953,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -3842,14 +3965,20 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
       <c r="B4" s="5"/>
       <c r="C4" s="40" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
@@ -3860,7 +3989,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
       <c r="B6" s="36" t="s">
         <v>82</v>
       </c>
@@ -3869,14 +4001,20 @@
       </c>
       <c r="D6" s="37"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
       <c r="B7" s="38"/>
       <c r="C7" s="37" t="s">
         <v>84</v>
       </c>
       <c r="D7" s="37"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>83</v>
       </c>
@@ -3885,7 +4023,10 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
       <c r="B9" s="7"/>
       <c r="C9" s="2" t="s">
         <v>91</v>
@@ -3894,7 +4035,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
       <c r="B10" s="7"/>
       <c r="C10" s="2" t="s">
         <v>99</v>
@@ -3903,14 +4047,20 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
       <c r="B11" s="5"/>
       <c r="C11" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
       <c r="B12" s="7" t="s">
         <v>87</v>
       </c>
@@ -3919,7 +4069,10 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
       <c r="B13" s="7"/>
       <c r="C13" s="40" t="s">
         <v>100</v>
@@ -3928,28 +4081,35 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
       <c r="B14" s="7"/>
       <c r="C14" s="40" t="s">
         <v>89</v>
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B15" s="7"/>
       <c r="C15" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D15" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
       <c r="C16" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D16" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B17" s="7" t="s">
         <v>108</v>
       </c>
@@ -3960,7 +4120,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B18" s="7"/>
       <c r="C18" s="2" t="s">
         <v>110</v>
@@ -3969,7 +4129,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
         <v>10</v>
       </c>
@@ -3981,8 +4141,10 @@
       </c>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="9"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="B20" s="5"/>
       <c r="C20" s="39" t="s">
         <v>11</v>
@@ -3991,12 +4153,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
         <v>113</v>
       </c>
@@ -4007,14 +4169,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
       <c r="C23" s="40" t="s">
         <v>92</v>
       </c>
       <c r="D23" s="40"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>141</v>
+      </c>
       <c r="C24" s="41" t="s">
         <v>126</v>
       </c>
@@ -4032,41 +4197,41 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
     <col min="2" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.796875" style="1"/>
-    <col min="10" max="10" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="1"/>
+    <col min="10" max="10" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.19921875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.09765625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.796875" style="1"/>
-    <col min="18" max="18" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.75" style="1"/>
+    <col min="18" max="18" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.19921875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.3984375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8.796875" style="1"/>
-    <col min="26" max="26" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.796875" style="1"/>
+    <col min="21" max="21" width="4.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.25" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="8.75" style="1"/>
+    <col min="26" max="26" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="R1" s="22"/>
       <c r="T1" s="22"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B2" s="15" t="s">
         <v>44</v>
       </c>
@@ -4085,7 +4250,7 @@
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B3" s="18" t="s">
         <v>18</v>
       </c>
@@ -4129,7 +4294,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>25</v>
       </c>
@@ -4165,7 +4330,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>34</v>
       </c>
@@ -4197,7 +4362,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>33</v>
       </c>
@@ -4214,7 +4379,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>118</v>
       </c>
@@ -4239,7 +4404,7 @@
       <c r="W7" s="24"/>
       <c r="X7" s="24"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>58</v>
       </c>
@@ -4262,7 +4427,7 @@
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="22"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -4273,7 +4438,7 @@
       <c r="H9" s="17"/>
       <c r="J9" s="23"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B10" s="21" t="s">
         <v>56</v>
       </c>
@@ -4297,7 +4462,7 @@
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B11" s="18" t="s">
         <v>18</v>
       </c>
@@ -4341,7 +4506,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B12" s="19" t="s">
         <v>61</v>
       </c>
@@ -4381,7 +4546,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B13" s="19" t="s">
         <v>24</v>
       </c>
@@ -4413,7 +4578,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B14" s="19" t="s">
         <v>47</v>
       </c>
@@ -4445,7 +4610,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B15" s="19" t="s">
         <v>115</v>
       </c>
@@ -4477,7 +4642,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B16" s="19" t="s">
         <v>48</v>
       </c>
@@ -4509,7 +4674,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B17" s="19" t="s">
         <v>55</v>
       </c>
@@ -4541,7 +4706,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
@@ -4558,7 +4723,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
       <c r="J20" s="27"/>
     </row>
   </sheetData>
@@ -4574,14 +4739,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D4" s="35" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="34" t="s">
         <v>125</v>
       </c>
@@ -4589,7 +4754,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D13" s="34"/>
       <c r="E13" s="35" t="s">
         <v>124</v>
@@ -4609,101 +4774,101 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>40</v>
       </c>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -4712,4 +4877,107 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0813A629-EF61-4EAD-AF5F-5A17A804C73C}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="44.875" customWidth="1"/>
+    <col min="3" max="3" width="33.25" customWidth="1"/>
+    <col min="5" max="5" width="33.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{21D35E45-5AE9-49DE-977C-D17BA06DB8D9}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{3C370ED0-F80D-4688-B472-4EFA3D114B02}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>